--- a/lista2.xlsx
+++ b/lista2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diiru/Desktop/inferenciaproyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45A43C4-EB3F-0445-A633-2420F22DF66C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD639EB2-57C1-784A-9346-6C3C116A5FD7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="notas" sheetId="1" r:id="rId1"/>
+    <sheet name="notas2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
@@ -803,7 +803,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -1036,11 +1036,11 @@
       </c>
       <c r="AE2" s="10">
         <f t="shared" ref="AE2:AE65" si="0">SUM(B2:AD2)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF2" s="11">
         <f t="shared" ref="AF2:AF65" si="1">(AE2*100)/29</f>
-        <v>55.172413793103445</v>
+        <v>58.620689655172413</v>
       </c>
       <c r="AG2" s="12">
         <v>4.8</v>
